--- a/backend_tests/z_input_files/v2/03_Soslaires_no_parameters.xlsx
+++ b/backend_tests/z_input_files/v2/03_Soslaires_no_parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -45,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0">
+    <comment ref="J6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="161">
   <si>
     <t xml:space="preserve">Case study code</t>
   </si>
@@ -362,9 +362,6 @@
   </si>
   <si>
     <t xml:space="preserve">Alias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Location</t>
   </si>
   <si>
     <t xml:space="preserve">Farm</t>
@@ -560,7 +557,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -615,6 +612,14 @@
     <font>
       <sz val="10"/>
       <color rgb="FF00AAAD"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -674,7 +679,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -740,6 +745,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -823,7 +832,7 @@
   <dimension ref="A1:D1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1017,7 +1026,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="29.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="13.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="7" style="1" width="13.23"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="11.52"/>
   </cols>
@@ -10817,10 +10826,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:AMJ13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K3" activeCellId="0" sqref="K3"/>
+      <selection pane="topLeft" activeCell="L1" activeCellId="0" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10828,17 +10837,16 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="16.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="7.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="20.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="7.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="11.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="11.76"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10876,15 +10884,13 @@
         <v>37</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8"/>
@@ -10892,67 +10898,66 @@
         <v>9</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
+        <v>102</v>
+      </c>
+      <c r="L2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="K3" s="8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="K4" s="0" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10960,26 +10965,26 @@
         <v>43</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10987,26 +10992,26 @@
         <v>44</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11014,26 +11019,26 @@
         <v>46</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11041,22 +11046,22 @@
         <v>47</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G9" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="H9" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11064,22 +11069,22 @@
         <v>48</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="H10" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11087,22 +11092,22 @@
         <v>49</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="H11" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11110,22 +11115,22 @@
         <v>50</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E12" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="H12" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11133,22 +11138,22 @@
         <v>51</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="H13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="8" t="s">
         <v>109</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -11156,8 +11161,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -11167,10 +11172,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:AMJ42"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11182,21 +11187,20 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="7.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="12.64"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="11.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="22.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="22.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="9" width="18.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="9" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="11.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="9" width="11.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="9" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="9" width="14.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="9" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="9" width="18.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="9" width="5.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="9" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="9" width="17.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="9" width="19.58"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="9" width="11.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="11.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="9" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="9" width="14.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="9" width="9.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="9" width="18.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="9" width="5.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="9" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="9" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="9" width="19.58"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11204,7 +11208,7 @@
         <v>98</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>31</v>
@@ -11219,22 +11223,22 @@
         <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>116</v>
@@ -11259,9 +11263,6 @@
       </c>
       <c r="T1" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" s="12" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11271,33 +11272,33 @@
         <v>52</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="8" t="s">
         <v>54</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="10" t="n">
+      <c r="J2" s="10" t="n">
         <v>282</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>55</v>
       </c>
+      <c r="L2" s="8"/>
       <c r="M2" s="8"/>
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="8"/>
       <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8"/>
@@ -11306,128 +11307,127 @@
         <v>56</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8" t="s">
         <v>54</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="10" t="n">
+      <c r="J3" s="10" t="n">
         <v>274000</v>
       </c>
-      <c r="L3" s="8" t="s">
-        <v>126</v>
-      </c>
+      <c r="K3" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="L3" s="8"/>
       <c r="M3" s="8"/>
       <c r="N3" s="8"/>
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="10" t="s">
+      <c r="Q3" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="R3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="S3" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="T3" s="8"/>
-      <c r="U3" s="11"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="13" t="s">
         <v>87</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I4" s="8"/>
-      <c r="K4" s="10" t="n">
+      <c r="J4" s="10" t="n">
         <v>16.8</v>
       </c>
-      <c r="L4" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="R4" s="10"/>
-      <c r="U4" s="8"/>
+      <c r="K4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" s="10"/>
+      <c r="T4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I5" s="8"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U5" s="8"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q5" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="13" t="s">
         <v>66</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I6" s="8"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="8"/>
-      <c r="R6" s="10"/>
-      <c r="U6" s="8"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="8"/>
+      <c r="Q6" s="10"/>
+      <c r="T6" s="8"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="9" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I7" s="8"/>
-      <c r="K7" s="10" t="n">
+      <c r="J7" s="10" t="n">
         <v>0.67</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="K7" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T7" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U7" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11435,134 +11435,134 @@
         <v>82</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I8" s="8"/>
-      <c r="K8" s="10" t="n">
+      <c r="J8" s="10" t="n">
         <v>0.56</v>
       </c>
-      <c r="L8" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U8" s="8"/>
+      <c r="K8" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q8" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H9" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="10" t="n">
+        <v>421</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="I9" s="8"/>
-      <c r="K9" s="10" t="n">
-        <v>421</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U9" s="11"/>
+      <c r="Q9" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T9" s="11"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="13" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I10" s="8"/>
-      <c r="K10" s="8" t="n">
+      <c r="J10" s="8" t="n">
         <v>84000</v>
       </c>
-      <c r="L10" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U10" s="8"/>
+      <c r="K10" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T10" s="8"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="9" t="s">
         <v>64</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I11" s="8"/>
+      <c r="J11" s="0"/>
       <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="R11" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U11" s="8"/>
+      <c r="Q11" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="9" t="s">
         <v>65</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H12" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T12" s="8" t="s">
         <v>137</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="K12" s="8" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U12" s="8" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11570,325 +11570,325 @@
         <v>84</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I13" s="8"/>
-      <c r="K13" s="8" t="n">
+      <c r="J13" s="8" t="n">
         <v>0.815</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U13" s="1"/>
+      <c r="K13" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="9" t="s">
         <v>67</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I14" s="8"/>
-      <c r="K14" s="0"/>
-      <c r="L14" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R14" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U14" s="1"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q14" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T14" s="1"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="9" t="s">
         <v>68</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I15" s="8"/>
+      <c r="J15" s="0"/>
       <c r="K15" s="0"/>
-      <c r="L15" s="0"/>
-      <c r="R15" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U15" s="1"/>
+      <c r="Q15" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T15" s="1"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="9" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I16" s="8"/>
-      <c r="K16" s="0"/>
-      <c r="L16" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R16" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U16" s="1"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T16" s="1"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H17" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8" t="n">
+        <v>24000</v>
+      </c>
+      <c r="K17" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="I17" s="8"/>
-      <c r="K17" s="8" t="n">
-        <v>24000</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R17" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U17" s="1"/>
+      <c r="Q17" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="13" t="s">
         <v>85</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I18" s="8"/>
-      <c r="K18" s="8" t="n">
+      <c r="J18" s="8" t="n">
         <v>18.3</v>
       </c>
-      <c r="L18" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U18" s="1"/>
+      <c r="K18" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T18" s="1"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K19" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J19" s="10" t="n">
         <v>8800</v>
       </c>
-      <c r="L19" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="R19" s="10"/>
-      <c r="U19" s="11"/>
+      <c r="K19" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q19" s="10"/>
+      <c r="T19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="9" t="s">
         <v>56</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G20" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J20" s="10" t="n">
+        <v>660</v>
+      </c>
+      <c r="K20" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K20" s="10" t="n">
-        <v>660</v>
-      </c>
-      <c r="L20" s="8" t="s">
+      <c r="Q20" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="R20" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U20" s="11"/>
+      <c r="T20" s="11"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="9" t="s">
         <v>58</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K21" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J21" s="10" t="n">
         <v>2.64</v>
       </c>
-      <c r="L21" s="8" t="s">
+      <c r="K21" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="R21" s="10"/>
-      <c r="U21" s="8"/>
+      <c r="Q21" s="10"/>
+      <c r="T21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="9" t="s">
         <v>86</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K22" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J22" s="10" t="n">
         <v>17160</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="K22" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R22" s="10" t="n">
+      <c r="Q22" s="10" t="n">
         <v>2015</v>
       </c>
-      <c r="U22" s="11"/>
+      <c r="T22" s="11"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="9" t="s">
         <v>87</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K23" s="8" t="n">
+        <v>124</v>
+      </c>
+      <c r="J23" s="8" t="n">
         <v>1800</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="K23" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R23" s="10" t="n">
+      <c r="Q23" s="10" t="n">
         <v>2016</v>
       </c>
-      <c r="U23" s="0"/>
+      <c r="T23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="9" t="s">
         <v>88</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K24" s="8" t="n">
+        <v>124</v>
+      </c>
+      <c r="J24" s="8" t="n">
         <v>85600</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="K24" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R24" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U24" s="0"/>
+      <c r="Q24" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="9" t="s">
         <v>70</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K25" s="8" t="n">
+        <v>138</v>
+      </c>
+      <c r="J25" s="8" t="n">
         <v>9.28</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="K25" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T25" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="R25" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U25" s="8" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11896,26 +11896,26 @@
         <v>72</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K26" s="8" t="n">
-        <f aca="false">K25/0.4</f>
+        <v>138</v>
+      </c>
+      <c r="J26" s="8" t="n">
+        <f aca="false">J25/0.4</f>
         <v>23.2</v>
       </c>
-      <c r="L26" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="R26" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U26" s="8" t="s">
-        <v>143</v>
+      <c r="K26" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T26" s="8" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11923,28 +11923,28 @@
         <v>73</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="K27" s="8" t="n">
+        <v>133</v>
+      </c>
+      <c r="J27" s="8" t="n">
         <v>6.6</v>
       </c>
-      <c r="L27" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="R27" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U27" s="8" t="s">
-        <v>144</v>
+      <c r="K27" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q27" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11952,47 +11952,47 @@
         <v>56</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G28" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" s="10" t="n">
+        <v>2640</v>
+      </c>
+      <c r="K28" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K28" s="10" t="n">
-        <v>2640</v>
-      </c>
-      <c r="L28" s="8" t="s">
+      <c r="Q28" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="R28" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U28" s="11"/>
+      <c r="T28" s="11"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="8" t="s">
         <v>52</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K29" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J29" s="10" t="n">
         <v>9950</v>
       </c>
-      <c r="L29" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="R29" s="10"/>
-      <c r="U29" s="11" t="s">
-        <v>145</v>
+      <c r="K29" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q29" s="10"/>
+      <c r="T29" s="11" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12000,23 +12000,23 @@
         <v>58</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K30" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J30" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="K30" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="R30" s="10"/>
-      <c r="U30" s="8" t="s">
-        <v>146</v>
+      <c r="Q30" s="10"/>
+      <c r="T30" s="8" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12024,94 +12024,94 @@
         <v>87</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K31" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J31" s="10" t="n">
         <f aca="false">152400+174400</f>
         <v>326800</v>
       </c>
-      <c r="L31" s="8" t="s">
+      <c r="K31" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R31" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U31" s="11"/>
+      <c r="Q31" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="8" t="s">
         <v>86</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K32" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J32" s="10" t="n">
         <v>1800</v>
       </c>
-      <c r="L32" s="8" t="s">
+      <c r="K32" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R32" s="10"/>
-      <c r="U32" s="11"/>
+      <c r="Q32" s="10"/>
+      <c r="T32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="8" t="s">
         <v>88</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>54</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K33" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J33" s="10" t="n">
         <v>100000</v>
       </c>
-      <c r="L33" s="8" t="s">
+      <c r="K33" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R33" s="10"/>
-      <c r="U33" s="8"/>
+      <c r="Q33" s="10"/>
+      <c r="T33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="8" t="s">
         <v>70</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K34" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J34" s="10" t="n">
         <v>2.68</v>
       </c>
-      <c r="L34" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="R34" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U34" s="11" t="s">
-        <v>147</v>
+      <c r="K34" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T34" s="11" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12119,25 +12119,25 @@
         <v>73</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K35" s="8" t="n">
+        <v>124</v>
+      </c>
+      <c r="J35" s="8" t="n">
         <v>929</v>
       </c>
-      <c r="L35" s="8" t="s">
+      <c r="K35" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="R35" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U35" s="11" t="s">
-        <v>147</v>
+      <c r="Q35" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T35" s="11" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12145,79 +12145,79 @@
         <v>81</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K36" s="8" t="n">
+        <v>124</v>
+      </c>
+      <c r="J36" s="8" t="n">
         <v>74000</v>
       </c>
-      <c r="L36" s="8" t="s">
+      <c r="K36" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="R36" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U36" s="11"/>
+      <c r="Q36" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T36" s="11"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="8" t="s">
         <v>74</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K37" s="8" t="n">
+        <v>136</v>
+      </c>
+      <c r="J37" s="8" t="n">
         <v>1.75</v>
       </c>
-      <c r="L37" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="R37" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U37" s="0"/>
+      <c r="K37" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q37" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="8" t="s">
         <v>75</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K38" s="8" t="n">
+        <v>136</v>
+      </c>
+      <c r="J38" s="8" t="n">
         <v>1.05</v>
       </c>
-      <c r="L38" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="R38" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U38" s="8" t="s">
-        <v>148</v>
+      <c r="K38" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q38" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T38" s="8" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12225,87 +12225,87 @@
         <v>69</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>137</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="J39" s="0"/>
       <c r="K39" s="0"/>
-      <c r="L39" s="0"/>
-      <c r="R39" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U39" s="0"/>
+      <c r="Q39" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="8" t="s">
         <v>76</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K40" s="8" t="n">
+        <v>138</v>
+      </c>
+      <c r="J40" s="8" t="n">
         <v>0.7</v>
       </c>
-      <c r="L40" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="U40" s="0"/>
+      <c r="K40" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="T40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="8" t="s">
         <v>79</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K41" s="8" t="n">
+        <v>138</v>
+      </c>
+      <c r="J41" s="8" t="n">
         <v>560000</v>
       </c>
-      <c r="L41" s="8" t="s">
+      <c r="K41" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="U41" s="0"/>
+      <c r="T41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="8" t="s">
         <v>77</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>41</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K42" s="8" t="n">
+        <v>138</v>
+      </c>
+      <c r="J42" s="8" t="n">
         <v>1.78</v>
       </c>
-      <c r="L42" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="U42" s="14" t="s">
-        <v>149</v>
+      <c r="K42" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="T42" s="14" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -12313,8 +12313,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -12324,10 +12324,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U97"/>
+  <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C95" activeCellId="0" sqref="C95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12341,19 +12341,18 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="11.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="21.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="9" width="18.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="9" width="6.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="5.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="9" width="11.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="9" width="12.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="9" width="14.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="9" width="9.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="9" width="18.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="9" width="5.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="9" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="9" width="17.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="9" width="16.06"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="22" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="6.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="9" width="5.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="11.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="9" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="9" width="14.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="9" width="9.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="9" width="18.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="9" width="5.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="9" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="9" width="17.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="9" width="16.07"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="21" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12361,7 +12360,7 @@
         <v>98</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>31</v>
@@ -12376,22 +12375,22 @@
         <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>116</v>
@@ -12416,9 +12415,6 @@
       </c>
       <c r="T1" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12433,16 +12429,16 @@
         <v>54</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J2" s="10" t="n">
         <v>120</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="10"/>
-      <c r="U2" s="11"/>
+      <c r="Q2" s="10"/>
+      <c r="T2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="8" t="s">
@@ -12456,18 +12452,18 @@
         <v>54</v>
       </c>
       <c r="G3" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="10" t="n">
+        <v>21000</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K3" s="10" t="n">
-        <v>21000</v>
-      </c>
-      <c r="L3" s="8" t="s">
+      <c r="Q3" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="R3" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U3" s="11"/>
+      <c r="T3" s="11"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="8" t="s">
@@ -12481,16 +12477,16 @@
         <v>54</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="R4" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U4" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="J4" s="10"/>
+      <c r="K4" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="8" t="s">
@@ -12504,12 +12500,12 @@
         <v>54</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="8"/>
-      <c r="R5" s="10"/>
-      <c r="U5" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="J5" s="10"/>
+      <c r="K5" s="8"/>
+      <c r="Q5" s="10"/>
+      <c r="T5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="8" t="s">
@@ -12523,19 +12519,19 @@
         <v>41</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K6" s="15" t="n">
+        <v>124</v>
+      </c>
+      <c r="J6" s="15" t="n">
         <v>0.72</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="K6" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T6" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="R6" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U6" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12550,21 +12546,21 @@
         <v>41</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H7" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" s="10" t="n">
+        <v>116</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="K7" s="10" t="n">
-        <v>116</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R7" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U7" s="11"/>
+      <c r="Q7" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T7" s="11"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="8" t="s">
@@ -12578,17 +12574,17 @@
         <v>41</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>134</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="J8" s="0"/>
       <c r="K8" s="0"/>
-      <c r="L8" s="0"/>
-      <c r="R8" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U8" s="8"/>
+      <c r="Q8" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="8" t="s">
@@ -12602,19 +12598,19 @@
         <v>41</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="R9" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U9" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q9" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T9" s="8"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="8" t="s">
@@ -12628,19 +12624,19 @@
         <v>41</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K10" s="0"/>
-      <c r="L10" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R10" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U10" s="0"/>
+        <v>136</v>
+      </c>
+      <c r="J10" s="0"/>
+      <c r="K10" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q10" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="8" t="s">
@@ -12654,17 +12650,17 @@
         <v>41</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>137</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="J11" s="0"/>
       <c r="K11" s="0"/>
-      <c r="L11" s="0"/>
-      <c r="R11" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U11" s="0"/>
+      <c r="Q11" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="8" t="s">
@@ -12678,19 +12674,19 @@
         <v>41</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K12" s="0"/>
-      <c r="L12" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R12" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U12" s="0"/>
+        <v>136</v>
+      </c>
+      <c r="J12" s="0"/>
+      <c r="K12" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q12" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="2" t="s">
@@ -12704,18 +12700,18 @@
         <v>41</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K13" s="8" t="n">
+        <v>138</v>
+      </c>
+      <c r="J13" s="8" t="n">
         <v>7200</v>
       </c>
-      <c r="L13" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R13" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U13" s="0"/>
+      <c r="K13" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q13" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="8" t="s">
@@ -12729,16 +12725,16 @@
         <v>54</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K14" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J14" s="10" t="n">
         <v>60</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="K14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="R14" s="10"/>
-      <c r="U14" s="11"/>
+      <c r="Q14" s="10"/>
+      <c r="T14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="8" t="s">
@@ -12752,18 +12748,18 @@
         <v>54</v>
       </c>
       <c r="G15" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J15" s="10" t="n">
+        <v>10500</v>
+      </c>
+      <c r="K15" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K15" s="10" t="n">
-        <v>10500</v>
-      </c>
-      <c r="L15" s="8" t="s">
+      <c r="Q15" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="R15" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U15" s="11"/>
+      <c r="T15" s="11"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="8" t="s">
@@ -12777,16 +12773,16 @@
         <v>54</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K16" s="10"/>
-      <c r="L16" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="R16" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U16" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="J16" s="10"/>
+      <c r="K16" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T16" s="8"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="8" t="s">
@@ -12800,12 +12796,12 @@
         <v>54</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K17" s="10"/>
-      <c r="L17" s="8"/>
-      <c r="R17" s="10"/>
-      <c r="U17" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="J17" s="10"/>
+      <c r="K17" s="8"/>
+      <c r="Q17" s="10"/>
+      <c r="T17" s="8"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="8" t="s">
@@ -12819,19 +12815,19 @@
         <v>41</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K18" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J18" s="10" t="n">
         <v>0.42</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="K18" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T18" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="R18" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U18" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12846,21 +12842,21 @@
         <v>41</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H19" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J19" s="10" t="n">
+        <v>90</v>
+      </c>
+      <c r="K19" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="K19" s="10" t="n">
-        <v>90</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R19" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U19" s="11"/>
+      <c r="Q19" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="8" t="s">
@@ -12874,17 +12870,17 @@
         <v>41</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>134</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="J20" s="0"/>
       <c r="K20" s="0"/>
-      <c r="L20" s="0"/>
-      <c r="R20" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U20" s="8"/>
+      <c r="Q20" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="8" t="s">
@@ -12898,19 +12894,19 @@
         <v>41</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="R21" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U21" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q21" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="8" t="s">
@@ -12924,19 +12920,19 @@
         <v>41</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K22" s="0"/>
-      <c r="L22" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R22" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U22" s="0"/>
+        <v>136</v>
+      </c>
+      <c r="J22" s="0"/>
+      <c r="K22" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q22" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="8" t="s">
@@ -12950,17 +12946,17 @@
         <v>41</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>137</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="J23" s="0"/>
       <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
-      <c r="R23" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U23" s="0"/>
+      <c r="Q23" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="8" t="s">
@@ -12974,19 +12970,19 @@
         <v>41</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K24" s="0"/>
-      <c r="L24" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R24" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U24" s="0"/>
+        <v>136</v>
+      </c>
+      <c r="J24" s="0"/>
+      <c r="K24" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q24" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T24" s="0"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="2" t="s">
@@ -13000,18 +12996,18 @@
         <v>41</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K25" s="8" t="n">
+        <v>138</v>
+      </c>
+      <c r="J25" s="8" t="n">
         <v>7800</v>
       </c>
-      <c r="L25" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R25" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U25" s="0"/>
+      <c r="K25" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q25" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T25" s="0"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="8" t="s">
@@ -13025,16 +13021,16 @@
         <v>54</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K26" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J26" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="K26" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="R26" s="10"/>
-      <c r="U26" s="11"/>
+      <c r="Q26" s="10"/>
+      <c r="T26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="8" t="s">
@@ -13048,18 +13044,18 @@
         <v>54</v>
       </c>
       <c r="G27" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27" s="10" t="n">
+        <v>34000</v>
+      </c>
+      <c r="K27" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K27" s="10" t="n">
-        <v>34000</v>
-      </c>
-      <c r="L27" s="8" t="s">
+      <c r="Q27" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="R27" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U27" s="11"/>
+      <c r="T27" s="11"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="8" t="s">
@@ -13073,16 +13069,16 @@
         <v>54</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K28" s="10"/>
-      <c r="L28" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="R28" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U28" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="J28" s="10"/>
+      <c r="K28" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T28" s="8"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="8" t="s">
@@ -13096,12 +13092,12 @@
         <v>54</v>
       </c>
       <c r="G29" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="8"/>
-      <c r="R29" s="10"/>
-      <c r="U29" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="8"/>
+      <c r="Q29" s="10"/>
+      <c r="T29" s="8"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="8" t="s">
@@ -13115,19 +13111,19 @@
         <v>41</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K30" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J30" s="10" t="n">
         <v>90000</v>
       </c>
-      <c r="L30" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="R30" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U30" s="8" t="s">
-        <v>132</v>
+      <c r="K30" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q30" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T30" s="8" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13142,21 +13138,21 @@
         <v>41</v>
       </c>
       <c r="G31" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H31" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J31" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="K31" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="K31" s="10" t="n">
-        <v>22</v>
-      </c>
-      <c r="L31" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R31" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U31" s="11"/>
+      <c r="Q31" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T31" s="11"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="8" t="s">
@@ -13170,17 +13166,17 @@
         <v>41</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>134</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="J32" s="0"/>
       <c r="K32" s="0"/>
-      <c r="L32" s="0"/>
-      <c r="R32" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U32" s="8"/>
+      <c r="Q32" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="8" t="s">
@@ -13194,19 +13190,19 @@
         <v>41</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="R33" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U33" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="J33" s="8"/>
+      <c r="K33" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q33" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="8" t="s">
@@ -13220,19 +13216,19 @@
         <v>41</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K34" s="0"/>
-      <c r="L34" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R34" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U34" s="0"/>
+        <v>136</v>
+      </c>
+      <c r="J34" s="0"/>
+      <c r="K34" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q34" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="8" t="s">
@@ -13246,17 +13242,17 @@
         <v>41</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>137</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="J35" s="0"/>
       <c r="K35" s="0"/>
-      <c r="L35" s="0"/>
-      <c r="R35" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U35" s="0"/>
+      <c r="Q35" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="8" t="s">
@@ -13270,19 +13266,19 @@
         <v>41</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K36" s="0"/>
-      <c r="L36" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R36" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U36" s="0"/>
+        <v>136</v>
+      </c>
+      <c r="J36" s="0"/>
+      <c r="K36" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q36" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="2" t="s">
@@ -13296,18 +13292,18 @@
         <v>41</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K37" s="8" t="n">
+        <v>138</v>
+      </c>
+      <c r="J37" s="8" t="n">
         <v>1350</v>
       </c>
-      <c r="L37" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R37" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U37" s="0"/>
+      <c r="K37" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q37" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="8" t="s">
@@ -13321,16 +13317,16 @@
         <v>54</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K38" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J38" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="L38" s="8" t="s">
+      <c r="K38" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="R38" s="10"/>
-      <c r="U38" s="11"/>
+      <c r="Q38" s="10"/>
+      <c r="T38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="8" t="s">
@@ -13344,18 +13340,18 @@
         <v>54</v>
       </c>
       <c r="G39" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J39" s="10" t="n">
+        <v>8800</v>
+      </c>
+      <c r="K39" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K39" s="10" t="n">
-        <v>8800</v>
-      </c>
-      <c r="L39" s="8" t="s">
+      <c r="Q39" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="R39" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U39" s="11"/>
+      <c r="T39" s="11"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="8" t="s">
@@ -13369,16 +13365,16 @@
         <v>54</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K40" s="10"/>
-      <c r="L40" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="R40" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U40" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="J40" s="10"/>
+      <c r="K40" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q40" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T40" s="8"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="8" t="s">
@@ -13392,12 +13388,12 @@
         <v>54</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K41" s="10"/>
-      <c r="L41" s="8"/>
-      <c r="R41" s="10"/>
-      <c r="U41" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="J41" s="10"/>
+      <c r="K41" s="8"/>
+      <c r="Q41" s="10"/>
+      <c r="T41" s="8"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="8" t="s">
@@ -13411,19 +13407,19 @@
         <v>41</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K42" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J42" s="10" t="n">
         <v>0.18</v>
       </c>
-      <c r="L42" s="8" t="s">
+      <c r="K42" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q42" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T42" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="R42" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U42" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13438,21 +13434,21 @@
         <v>41</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H43" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J43" s="10" t="n">
+        <v>62</v>
+      </c>
+      <c r="K43" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="K43" s="10" t="n">
-        <v>62</v>
-      </c>
-      <c r="L43" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R43" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U43" s="11"/>
+      <c r="Q43" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T43" s="11"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="8" t="s">
@@ -13466,17 +13462,17 @@
         <v>41</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>134</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="J44" s="0"/>
       <c r="K44" s="0"/>
-      <c r="L44" s="0"/>
-      <c r="R44" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U44" s="8"/>
+      <c r="Q44" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="8" t="s">
@@ -13490,19 +13486,19 @@
         <v>41</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="R45" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U45" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q45" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T45" s="8"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="8" t="s">
@@ -13516,19 +13512,19 @@
         <v>41</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K46" s="0"/>
-      <c r="L46" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R46" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U46" s="0"/>
+        <v>136</v>
+      </c>
+      <c r="J46" s="0"/>
+      <c r="K46" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q46" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="8" t="s">
@@ -13542,17 +13538,17 @@
         <v>41</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>137</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="J47" s="0"/>
       <c r="K47" s="0"/>
-      <c r="L47" s="0"/>
-      <c r="R47" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U47" s="0"/>
+      <c r="Q47" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="8" t="s">
@@ -13566,19 +13562,19 @@
         <v>41</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K48" s="0"/>
-      <c r="L48" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R48" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U48" s="0"/>
+        <v>136</v>
+      </c>
+      <c r="J48" s="0"/>
+      <c r="K48" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q48" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="2" t="s">
@@ -13592,18 +13588,18 @@
         <v>41</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K49" s="8" t="n">
+        <v>138</v>
+      </c>
+      <c r="J49" s="8" t="n">
         <v>3600</v>
       </c>
-      <c r="L49" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R49" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U49" s="0"/>
+      <c r="K49" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q49" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="8" t="s">
@@ -13617,16 +13613,16 @@
         <v>54</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K50" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J50" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="L50" s="8" t="s">
+      <c r="K50" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="R50" s="10"/>
-      <c r="U50" s="11"/>
+      <c r="Q50" s="10"/>
+      <c r="T50" s="11"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="8" t="s">
@@ -13640,18 +13636,18 @@
         <v>54</v>
       </c>
       <c r="G51" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J51" s="10" t="n">
+        <v>8800</v>
+      </c>
+      <c r="K51" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K51" s="10" t="n">
-        <v>8800</v>
-      </c>
-      <c r="L51" s="8" t="s">
+      <c r="Q51" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="R51" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U51" s="11"/>
+      <c r="T51" s="11"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="8" t="s">
@@ -13665,16 +13661,16 @@
         <v>54</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K52" s="10"/>
-      <c r="L52" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="R52" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U52" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="J52" s="10"/>
+      <c r="K52" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q52" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T52" s="8"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="8" t="s">
@@ -13688,12 +13684,12 @@
         <v>54</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K53" s="10"/>
-      <c r="L53" s="8"/>
-      <c r="R53" s="10"/>
-      <c r="U53" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="J53" s="10"/>
+      <c r="K53" s="8"/>
+      <c r="Q53" s="10"/>
+      <c r="T53" s="8"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="8" t="s">
@@ -13707,19 +13703,19 @@
         <v>41</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K54" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J54" s="10" t="n">
         <v>0.21</v>
       </c>
-      <c r="L54" s="8" t="s">
+      <c r="K54" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q54" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T54" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="R54" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U54" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13734,21 +13730,21 @@
         <v>41</v>
       </c>
       <c r="G55" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H55" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J55" s="10" t="n">
+        <v>74.6</v>
+      </c>
+      <c r="K55" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="K55" s="10" t="n">
-        <v>74.6</v>
-      </c>
-      <c r="L55" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R55" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U55" s="11"/>
+      <c r="Q55" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T55" s="11"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="8" t="s">
@@ -13762,17 +13758,17 @@
         <v>41</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>134</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="J56" s="0"/>
       <c r="K56" s="0"/>
-      <c r="L56" s="0"/>
-      <c r="R56" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U56" s="8"/>
+      <c r="Q56" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="8" t="s">
@@ -13786,19 +13782,19 @@
         <v>41</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K57" s="8"/>
-      <c r="L57" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="R57" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U57" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="J57" s="8"/>
+      <c r="K57" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q57" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T57" s="8"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="8" t="s">
@@ -13812,19 +13808,19 @@
         <v>41</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K58" s="0"/>
-      <c r="L58" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R58" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U58" s="0"/>
+        <v>136</v>
+      </c>
+      <c r="J58" s="0"/>
+      <c r="K58" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q58" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="8" t="s">
@@ -13838,17 +13834,17 @@
         <v>41</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>137</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="J59" s="0"/>
       <c r="K59" s="0"/>
-      <c r="L59" s="0"/>
-      <c r="R59" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U59" s="0"/>
+      <c r="Q59" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="8" t="s">
@@ -13862,19 +13858,19 @@
         <v>41</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K60" s="0"/>
-      <c r="L60" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R60" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U60" s="0"/>
+        <v>136</v>
+      </c>
+      <c r="J60" s="0"/>
+      <c r="K60" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q60" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T60" s="0"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="2" t="s">
@@ -13888,18 +13884,18 @@
         <v>41</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K61" s="8" t="n">
+        <v>138</v>
+      </c>
+      <c r="J61" s="8" t="n">
         <v>1800</v>
       </c>
-      <c r="L61" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R61" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U61" s="0"/>
+      <c r="K61" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q61" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="8" t="s">
@@ -13913,16 +13909,16 @@
         <v>54</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K62" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J62" s="10" t="n">
         <v>25</v>
       </c>
-      <c r="L62" s="8" t="s">
+      <c r="K62" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="R62" s="10"/>
-      <c r="U62" s="11"/>
+      <c r="Q62" s="10"/>
+      <c r="T62" s="11"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="8" t="s">
@@ -13936,18 +13932,18 @@
         <v>54</v>
       </c>
       <c r="G63" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J63" s="10" t="n">
+        <v>4400</v>
+      </c>
+      <c r="K63" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K63" s="10" t="n">
-        <v>4400</v>
-      </c>
-      <c r="L63" s="8" t="s">
+      <c r="Q63" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="R63" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U63" s="11"/>
+      <c r="T63" s="11"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="8" t="s">
@@ -13961,16 +13957,16 @@
         <v>54</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K64" s="10"/>
-      <c r="L64" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="R64" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U64" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="J64" s="10"/>
+      <c r="K64" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q64" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T64" s="8"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="8" t="s">
@@ -13984,12 +13980,12 @@
         <v>54</v>
       </c>
       <c r="G65" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K65" s="10"/>
-      <c r="L65" s="8"/>
-      <c r="R65" s="10"/>
-      <c r="U65" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="J65" s="10"/>
+      <c r="K65" s="8"/>
+      <c r="Q65" s="10"/>
+      <c r="T65" s="8"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="8" t="s">
@@ -14003,19 +13999,19 @@
         <v>41</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K66" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J66" s="10" t="n">
         <v>0.1</v>
       </c>
-      <c r="L66" s="8" t="s">
+      <c r="K66" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q66" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T66" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="R66" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U66" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14030,21 +14026,21 @@
         <v>41</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H67" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J67" s="10" t="n">
+        <v>31</v>
+      </c>
+      <c r="K67" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="K67" s="10" t="n">
-        <v>31</v>
-      </c>
-      <c r="L67" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R67" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U67" s="11"/>
+      <c r="Q67" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T67" s="11"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="8" t="s">
@@ -14058,17 +14054,17 @@
         <v>41</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>134</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="J68" s="0"/>
       <c r="K68" s="0"/>
-      <c r="L68" s="0"/>
-      <c r="R68" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U68" s="8"/>
+      <c r="Q68" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T68" s="8"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="8" t="s">
@@ -14082,19 +14078,19 @@
         <v>41</v>
       </c>
       <c r="G69" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="R69" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U69" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="J69" s="8"/>
+      <c r="K69" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q69" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T69" s="8"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="8" t="s">
@@ -14108,19 +14104,19 @@
         <v>41</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K70" s="0"/>
-      <c r="L70" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R70" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U70" s="0"/>
+        <v>136</v>
+      </c>
+      <c r="J70" s="0"/>
+      <c r="K70" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q70" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T70" s="0"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="8" t="s">
@@ -14134,17 +14130,17 @@
         <v>41</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>137</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="J71" s="0"/>
       <c r="K71" s="0"/>
-      <c r="L71" s="0"/>
-      <c r="R71" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U71" s="0"/>
+      <c r="Q71" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="8" t="s">
@@ -14158,19 +14154,19 @@
         <v>41</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K72" s="0"/>
-      <c r="L72" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R72" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U72" s="0"/>
+        <v>136</v>
+      </c>
+      <c r="J72" s="0"/>
+      <c r="K72" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q72" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="2" t="s">
@@ -14184,18 +14180,18 @@
         <v>41</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K73" s="8" t="n">
+        <v>138</v>
+      </c>
+      <c r="J73" s="8" t="n">
         <v>2250</v>
       </c>
-      <c r="L73" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R73" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U73" s="0"/>
+      <c r="K73" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q73" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T73" s="0"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="8" t="s">
@@ -14209,16 +14205,16 @@
         <v>54</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K74" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J74" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="L74" s="8" t="s">
+      <c r="K74" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="R74" s="10"/>
-      <c r="U74" s="11"/>
+      <c r="Q74" s="10"/>
+      <c r="T74" s="11"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="8" t="s">
@@ -14232,18 +14228,18 @@
         <v>54</v>
       </c>
       <c r="G75" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J75" s="10" t="n">
+        <v>6600</v>
+      </c>
+      <c r="K75" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K75" s="10" t="n">
-        <v>6600</v>
-      </c>
-      <c r="L75" s="8" t="s">
+      <c r="Q75" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="R75" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U75" s="11"/>
+      <c r="T75" s="11"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="8" t="s">
@@ -14257,16 +14253,16 @@
         <v>54</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K76" s="10"/>
-      <c r="L76" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="R76" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U76" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="J76" s="10"/>
+      <c r="K76" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q76" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T76" s="8"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="8" t="s">
@@ -14280,12 +14276,12 @@
         <v>54</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K77" s="10"/>
-      <c r="L77" s="8"/>
-      <c r="R77" s="10"/>
-      <c r="U77" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="J77" s="10"/>
+      <c r="K77" s="8"/>
+      <c r="Q77" s="10"/>
+      <c r="T77" s="8"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="8" t="s">
@@ -14299,19 +14295,19 @@
         <v>41</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K78" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J78" s="10" t="n">
         <v>0.18</v>
       </c>
-      <c r="L78" s="8" t="s">
+      <c r="K78" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q78" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T78" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="R78" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U78" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14326,21 +14322,21 @@
         <v>41</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H79" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J79" s="10" t="n">
+        <v>26</v>
+      </c>
+      <c r="K79" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="K79" s="10" t="n">
-        <v>26</v>
-      </c>
-      <c r="L79" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R79" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U79" s="11"/>
+      <c r="Q79" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T79" s="11"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="8" t="s">
@@ -14354,17 +14350,17 @@
         <v>41</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>134</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="J80" s="0"/>
       <c r="K80" s="0"/>
-      <c r="L80" s="0"/>
-      <c r="R80" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U80" s="8"/>
+      <c r="Q80" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T80" s="8"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="8" t="s">
@@ -14378,19 +14374,19 @@
         <v>41</v>
       </c>
       <c r="G81" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="R81" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U81" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="J81" s="8"/>
+      <c r="K81" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q81" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T81" s="8"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="8" t="s">
@@ -14404,19 +14400,19 @@
         <v>41</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K82" s="0"/>
-      <c r="L82" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R82" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U82" s="0"/>
+        <v>136</v>
+      </c>
+      <c r="J82" s="0"/>
+      <c r="K82" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q82" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T82" s="0"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="8" t="s">
@@ -14430,17 +14426,17 @@
         <v>41</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>137</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="J83" s="0"/>
       <c r="K83" s="0"/>
-      <c r="L83" s="0"/>
-      <c r="R83" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U83" s="0"/>
+      <c r="Q83" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="8" t="s">
@@ -14454,19 +14450,19 @@
         <v>41</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K84" s="0"/>
-      <c r="L84" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R84" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U84" s="0"/>
+        <v>136</v>
+      </c>
+      <c r="J84" s="0"/>
+      <c r="K84" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q84" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T84" s="0"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="2" t="s">
@@ -14480,18 +14476,18 @@
         <v>41</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K85" s="8" t="n">
+        <v>138</v>
+      </c>
+      <c r="J85" s="8" t="n">
         <v>113</v>
       </c>
-      <c r="L85" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R85" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U85" s="0"/>
+      <c r="K85" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q85" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T85" s="0"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="8" t="s">
@@ -14505,16 +14501,16 @@
         <v>54</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K86" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J86" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="L86" s="8" t="s">
+      <c r="K86" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="R86" s="10"/>
-      <c r="U86" s="11"/>
+      <c r="Q86" s="10"/>
+      <c r="T86" s="11"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="8" t="s">
@@ -14528,18 +14524,18 @@
         <v>54</v>
       </c>
       <c r="G87" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J87" s="10" t="n">
+        <v>3000</v>
+      </c>
+      <c r="K87" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="K87" s="10" t="n">
-        <v>3000</v>
-      </c>
-      <c r="L87" s="8" t="s">
+      <c r="Q87" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="R87" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U87" s="11"/>
+      <c r="T87" s="11"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="8" t="s">
@@ -14553,16 +14549,16 @@
         <v>54</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K88" s="10"/>
-      <c r="L88" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="R88" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U88" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="J88" s="10"/>
+      <c r="K88" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q88" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T88" s="8"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="8" t="s">
@@ -14576,12 +14572,12 @@
         <v>54</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K89" s="10"/>
-      <c r="L89" s="8"/>
-      <c r="R89" s="10"/>
-      <c r="U89" s="8"/>
+        <v>124</v>
+      </c>
+      <c r="J89" s="10"/>
+      <c r="K89" s="8"/>
+      <c r="Q89" s="10"/>
+      <c r="T89" s="8"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="8" t="s">
@@ -14595,19 +14591,19 @@
         <v>41</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="K90" s="10" t="n">
+        <v>124</v>
+      </c>
+      <c r="J90" s="10" t="n">
         <v>0.25</v>
       </c>
-      <c r="L90" s="8" t="s">
+      <c r="K90" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q90" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T90" s="8" t="s">
         <v>131</v>
-      </c>
-      <c r="R90" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U90" s="8" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14622,19 +14618,19 @@
         <v>41</v>
       </c>
       <c r="G91" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H91" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="J91" s="10"/>
+      <c r="K91" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="K91" s="10"/>
-      <c r="L91" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R91" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U91" s="11"/>
+      <c r="Q91" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T91" s="11"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="8" t="s">
@@ -14648,17 +14644,17 @@
         <v>41</v>
       </c>
       <c r="G92" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>134</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="J92" s="0"/>
       <c r="K92" s="0"/>
-      <c r="L92" s="0"/>
-      <c r="R92" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U92" s="8"/>
+      <c r="Q92" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T92" s="8"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="8" t="s">
@@ -14672,19 +14668,19 @@
         <v>41</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K93" s="8"/>
-      <c r="L93" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="R93" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U93" s="8"/>
+        <v>136</v>
+      </c>
+      <c r="J93" s="8"/>
+      <c r="K93" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q93" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T93" s="8"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="8" t="s">
@@ -14698,19 +14694,19 @@
         <v>41</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K94" s="0"/>
-      <c r="L94" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R94" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U94" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="J94" s="0"/>
+      <c r="K94" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q94" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T94" s="1"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C95" s="8" t="s">
@@ -14724,17 +14720,17 @@
         <v>41</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>137</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="J95" s="0"/>
       <c r="K95" s="0"/>
-      <c r="L95" s="0"/>
-      <c r="R95" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U95" s="1"/>
+      <c r="Q95" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T95" s="1"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C96" s="8" t="s">
@@ -14748,19 +14744,19 @@
         <v>41</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="K96" s="0"/>
-      <c r="L96" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R96" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U96" s="1"/>
+        <v>136</v>
+      </c>
+      <c r="J96" s="0"/>
+      <c r="K96" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q96" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T96" s="1"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C97" s="2" t="s">
@@ -14774,26 +14770,26 @@
         <v>41</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="K97" s="8" t="n">
+        <v>138</v>
+      </c>
+      <c r="J97" s="8" t="n">
         <v>56</v>
       </c>
-      <c r="L97" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="R97" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="U97" s="1"/>
+      <c r="K97" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q97" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="T97" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
@@ -14806,7 +14802,7 @@
   </sheetPr>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -14817,103 +14813,104 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="9" width="12.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="9" width="28.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="21.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="18.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="18.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="16.99"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="9" width="15.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="19.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="9" width="14.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="9" width="14.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="13" style="1" width="10.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>157</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>158</v>
       </c>
       <c r="L1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L2" s="1"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>73</v>
       </c>
+      <c r="F4" s="17"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>62</v>
@@ -14924,142 +14921,142 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>159</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>159</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15070,10 +15067,10 @@
         <v>43</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15084,10 +15081,10 @@
         <v>44</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15098,10 +15095,10 @@
         <v>46</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15112,10 +15109,10 @@
         <v>47</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15126,10 +15123,10 @@
         <v>48</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15140,10 +15137,10 @@
         <v>49</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15154,10 +15151,10 @@
         <v>50</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15168,10 +15165,10 @@
         <v>51</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/backend_tests/z_input_files/v2/03_Soslaires_no_parameters.xlsx
+++ b/backend_tests/z_input_files/v2/03_Soslaires_no_parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="160">
   <si>
     <t xml:space="preserve">Case study code</t>
   </si>
@@ -446,9 +446,6 @@
   </si>
   <si>
     <t xml:space="preserve">Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[prov1]</t>
   </si>
   <si>
     <t xml:space="preserve">M€</t>
@@ -11174,8 +11171,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11187,7 +11184,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="7.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="12.64"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="11.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="22.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="22.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="9" width="18.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="9" width="6.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="9" width="11.38"/>
@@ -11332,9 +11329,7 @@
       <c r="Q3" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="R3" s="8" t="s">
-        <v>127</v>
-      </c>
+      <c r="R3" s="8"/>
       <c r="S3" s="8"/>
       <c r="T3" s="11"/>
     </row>
@@ -11356,7 +11351,7 @@
         <v>16.8</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q4" s="10"/>
       <c r="T4" s="8"/>
@@ -11377,7 +11372,7 @@
       <c r="I5" s="8"/>
       <c r="J5" s="10"/>
       <c r="K5" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q5" s="10" t="s">
         <v>126</v>
@@ -11421,13 +11416,13 @@
         <v>0.67</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="10" t="s">
         <v>126</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11448,7 +11443,7 @@
         <v>0.56</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="Q8" s="10" t="s">
         <v>126</v>
@@ -11469,14 +11464,14 @@
         <v>124</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="10" t="n">
         <v>421</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q9" s="10" t="s">
         <v>126</v>
@@ -11497,14 +11492,14 @@
         <v>124</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8" t="n">
         <v>84000</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="10" t="s">
         <v>126</v>
@@ -11525,7 +11520,7 @@
         <v>124</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="0"/>
@@ -11549,20 +11544,20 @@
         <v>124</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8" t="n">
         <v>1.48</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>126</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11579,14 +11574,14 @@
         <v>124</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8" t="n">
         <v>0.815</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>126</v>
@@ -11604,15 +11599,15 @@
         <v>41</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="0"/>
       <c r="K14" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q14" s="10" t="s">
         <v>126</v>
@@ -11630,10 +11625,10 @@
         <v>41</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="0"/>
@@ -11654,15 +11649,15 @@
         <v>41</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="0"/>
       <c r="K16" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>126</v>
@@ -11680,17 +11675,17 @@
         <v>41</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8" t="n">
         <v>24000</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q17" s="10" t="s">
         <v>126</v>
@@ -11708,17 +11703,17 @@
         <v>41</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8" t="n">
         <v>18.3</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>126</v>
@@ -11742,7 +11737,7 @@
         <v>8800</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="10"/>
       <c r="T19" s="11"/>
@@ -11876,19 +11871,19 @@
         <v>41</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J25" s="8" t="n">
         <v>9.28</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q25" s="10" t="s">
         <v>126</v>
       </c>
       <c r="T25" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11902,20 +11897,20 @@
         <v>41</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J26" s="8" t="n">
         <f aca="false">J25/0.4</f>
         <v>23.2</v>
       </c>
       <c r="K26" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q26" s="10" t="s">
         <v>126</v>
       </c>
       <c r="T26" s="8" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11932,19 +11927,19 @@
         <v>124</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J27" s="8" t="n">
         <v>6.6</v>
       </c>
       <c r="K27" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q27" s="10" t="s">
         <v>126</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11988,11 +11983,11 @@
         <v>9950</v>
       </c>
       <c r="K29" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q29" s="10"/>
       <c r="T29" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12016,7 +12011,7 @@
       </c>
       <c r="Q30" s="10"/>
       <c r="T30" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12105,13 +12100,13 @@
         <v>2.68</v>
       </c>
       <c r="K34" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>126</v>
       </c>
       <c r="T34" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12137,7 +12132,7 @@
         <v>126</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12178,13 +12173,13 @@
         <v>124</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J37" s="8" t="n">
         <v>1.75</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q37" s="10" t="s">
         <v>126</v>
@@ -12202,22 +12197,22 @@
         <v>41</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J38" s="8" t="n">
         <v>1.05</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q38" s="10" t="s">
         <v>126</v>
       </c>
       <c r="T38" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12231,10 +12226,10 @@
         <v>41</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J39" s="0"/>
       <c r="K39" s="0"/>
@@ -12254,13 +12249,13 @@
         <v>41</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J40" s="8" t="n">
         <v>0.7</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T40" s="0"/>
     </row>
@@ -12275,7 +12270,7 @@
         <v>41</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J41" s="8" t="n">
         <v>560000</v>
@@ -12296,16 +12291,16 @@
         <v>41</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J42" s="8" t="n">
         <v>1.78</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="T42" s="14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -12326,7 +12321,7 @@
   </sheetPr>
   <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
     </sheetView>
   </sheetViews>
@@ -12481,7 +12476,7 @@
       </c>
       <c r="J4" s="10"/>
       <c r="K4" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="10" t="s">
         <v>126</v>
@@ -12525,13 +12520,13 @@
         <v>0.72</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q6" s="10" t="s">
         <v>126</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12549,13 +12544,13 @@
         <v>124</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J7" s="10" t="n">
         <v>116</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="10" t="s">
         <v>126</v>
@@ -12577,7 +12572,7 @@
         <v>124</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
@@ -12601,11 +12596,11 @@
         <v>124</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J9" s="8"/>
       <c r="K9" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q9" s="10" t="s">
         <v>126</v>
@@ -12624,14 +12619,14 @@
         <v>41</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J10" s="0"/>
       <c r="K10" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q10" s="10" t="s">
         <v>126</v>
@@ -12650,10 +12645,10 @@
         <v>41</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
@@ -12674,14 +12669,14 @@
         <v>41</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J12" s="0"/>
       <c r="K12" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q12" s="10" t="s">
         <v>126</v>
@@ -12700,13 +12695,13 @@
         <v>41</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J13" s="8" t="n">
         <v>7200</v>
       </c>
       <c r="K13" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="10" t="s">
         <v>126</v>
@@ -12777,7 +12772,7 @@
       </c>
       <c r="J16" s="10"/>
       <c r="K16" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>126</v>
@@ -12821,13 +12816,13 @@
         <v>0.42</v>
       </c>
       <c r="K18" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="10" t="s">
         <v>126</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12845,13 +12840,13 @@
         <v>124</v>
       </c>
       <c r="H19" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J19" s="10" t="n">
         <v>90</v>
       </c>
       <c r="K19" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="10" t="s">
         <v>126</v>
@@ -12873,7 +12868,7 @@
         <v>124</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
@@ -12897,11 +12892,11 @@
         <v>124</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J21" s="8"/>
       <c r="K21" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q21" s="10" t="s">
         <v>126</v>
@@ -12920,14 +12915,14 @@
         <v>41</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H22" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J22" s="0"/>
       <c r="K22" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q22" s="10" t="s">
         <v>126</v>
@@ -12946,10 +12941,10 @@
         <v>41</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H23" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
@@ -12970,14 +12965,14 @@
         <v>41</v>
       </c>
       <c r="G24" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H24" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J24" s="0"/>
       <c r="K24" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q24" s="10" t="s">
         <v>126</v>
@@ -12996,13 +12991,13 @@
         <v>41</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J25" s="8" t="n">
         <v>7800</v>
       </c>
       <c r="K25" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q25" s="10" t="s">
         <v>126</v>
@@ -13073,7 +13068,7 @@
       </c>
       <c r="J28" s="10"/>
       <c r="K28" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q28" s="10" t="s">
         <v>126</v>
@@ -13117,13 +13112,13 @@
         <v>90000</v>
       </c>
       <c r="K30" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q30" s="10" t="s">
         <v>126</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13141,13 +13136,13 @@
         <v>124</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J31" s="10" t="n">
         <v>22</v>
       </c>
       <c r="K31" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q31" s="10" t="s">
         <v>126</v>
@@ -13169,7 +13164,7 @@
         <v>124</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J32" s="0"/>
       <c r="K32" s="0"/>
@@ -13193,11 +13188,11 @@
         <v>124</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J33" s="8"/>
       <c r="K33" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q33" s="10" t="s">
         <v>126</v>
@@ -13216,14 +13211,14 @@
         <v>41</v>
       </c>
       <c r="G34" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J34" s="0"/>
       <c r="K34" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q34" s="10" t="s">
         <v>126</v>
@@ -13242,10 +13237,10 @@
         <v>41</v>
       </c>
       <c r="G35" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J35" s="0"/>
       <c r="K35" s="0"/>
@@ -13266,14 +13261,14 @@
         <v>41</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J36" s="0"/>
       <c r="K36" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q36" s="10" t="s">
         <v>126</v>
@@ -13292,13 +13287,13 @@
         <v>41</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J37" s="8" t="n">
         <v>1350</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q37" s="10" t="s">
         <v>126</v>
@@ -13369,7 +13364,7 @@
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q40" s="10" t="s">
         <v>126</v>
@@ -13413,13 +13408,13 @@
         <v>0.18</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q42" s="10" t="s">
         <v>126</v>
       </c>
       <c r="T42" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13437,13 +13432,13 @@
         <v>124</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J43" s="10" t="n">
         <v>62</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q43" s="10" t="s">
         <v>126</v>
@@ -13465,7 +13460,7 @@
         <v>124</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J44" s="0"/>
       <c r="K44" s="0"/>
@@ -13489,11 +13484,11 @@
         <v>124</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J45" s="8"/>
       <c r="K45" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q45" s="10" t="s">
         <v>126</v>
@@ -13512,14 +13507,14 @@
         <v>41</v>
       </c>
       <c r="G46" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J46" s="0"/>
       <c r="K46" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q46" s="10" t="s">
         <v>126</v>
@@ -13538,10 +13533,10 @@
         <v>41</v>
       </c>
       <c r="G47" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H47" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J47" s="0"/>
       <c r="K47" s="0"/>
@@ -13562,14 +13557,14 @@
         <v>41</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J48" s="0"/>
       <c r="K48" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q48" s="10" t="s">
         <v>126</v>
@@ -13588,13 +13583,13 @@
         <v>41</v>
       </c>
       <c r="G49" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J49" s="8" t="n">
         <v>3600</v>
       </c>
       <c r="K49" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q49" s="10" t="s">
         <v>126</v>
@@ -13665,7 +13660,7 @@
       </c>
       <c r="J52" s="10"/>
       <c r="K52" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q52" s="10" t="s">
         <v>126</v>
@@ -13709,13 +13704,13 @@
         <v>0.21</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q54" s="10" t="s">
         <v>126</v>
       </c>
       <c r="T54" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13733,13 +13728,13 @@
         <v>124</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J55" s="10" t="n">
         <v>74.6</v>
       </c>
       <c r="K55" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q55" s="10" t="s">
         <v>126</v>
@@ -13761,7 +13756,7 @@
         <v>124</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J56" s="0"/>
       <c r="K56" s="0"/>
@@ -13785,11 +13780,11 @@
         <v>124</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J57" s="8"/>
       <c r="K57" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q57" s="10" t="s">
         <v>126</v>
@@ -13808,14 +13803,14 @@
         <v>41</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J58" s="0"/>
       <c r="K58" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q58" s="10" t="s">
         <v>126</v>
@@ -13834,10 +13829,10 @@
         <v>41</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J59" s="0"/>
       <c r="K59" s="0"/>
@@ -13858,14 +13853,14 @@
         <v>41</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J60" s="0"/>
       <c r="K60" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q60" s="10" t="s">
         <v>126</v>
@@ -13884,13 +13879,13 @@
         <v>41</v>
       </c>
       <c r="G61" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J61" s="8" t="n">
         <v>1800</v>
       </c>
       <c r="K61" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q61" s="10" t="s">
         <v>126</v>
@@ -13961,7 +13956,7 @@
       </c>
       <c r="J64" s="10"/>
       <c r="K64" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q64" s="10" t="s">
         <v>126</v>
@@ -14005,13 +14000,13 @@
         <v>0.1</v>
       </c>
       <c r="K66" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q66" s="10" t="s">
         <v>126</v>
       </c>
       <c r="T66" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14029,13 +14024,13 @@
         <v>124</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J67" s="10" t="n">
         <v>31</v>
       </c>
       <c r="K67" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q67" s="10" t="s">
         <v>126</v>
@@ -14057,7 +14052,7 @@
         <v>124</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J68" s="0"/>
       <c r="K68" s="0"/>
@@ -14081,11 +14076,11 @@
         <v>124</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J69" s="8"/>
       <c r="K69" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q69" s="10" t="s">
         <v>126</v>
@@ -14104,14 +14099,14 @@
         <v>41</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J70" s="0"/>
       <c r="K70" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q70" s="10" t="s">
         <v>126</v>
@@ -14130,10 +14125,10 @@
         <v>41</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H71" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J71" s="0"/>
       <c r="K71" s="0"/>
@@ -14154,14 +14149,14 @@
         <v>41</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H72" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J72" s="0"/>
       <c r="K72" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q72" s="10" t="s">
         <v>126</v>
@@ -14180,13 +14175,13 @@
         <v>41</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J73" s="8" t="n">
         <v>2250</v>
       </c>
       <c r="K73" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q73" s="10" t="s">
         <v>126</v>
@@ -14257,7 +14252,7 @@
       </c>
       <c r="J76" s="10"/>
       <c r="K76" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q76" s="10" t="s">
         <v>126</v>
@@ -14301,13 +14296,13 @@
         <v>0.18</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q78" s="10" t="s">
         <v>126</v>
       </c>
       <c r="T78" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14325,13 +14320,13 @@
         <v>124</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J79" s="10" t="n">
         <v>26</v>
       </c>
       <c r="K79" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q79" s="10" t="s">
         <v>126</v>
@@ -14353,7 +14348,7 @@
         <v>124</v>
       </c>
       <c r="H80" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J80" s="0"/>
       <c r="K80" s="0"/>
@@ -14377,11 +14372,11 @@
         <v>124</v>
       </c>
       <c r="H81" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J81" s="8"/>
       <c r="K81" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q81" s="10" t="s">
         <v>126</v>
@@ -14400,14 +14395,14 @@
         <v>41</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J82" s="0"/>
       <c r="K82" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q82" s="10" t="s">
         <v>126</v>
@@ -14426,10 +14421,10 @@
         <v>41</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H83" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J83" s="0"/>
       <c r="K83" s="0"/>
@@ -14450,14 +14445,14 @@
         <v>41</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J84" s="0"/>
       <c r="K84" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q84" s="10" t="s">
         <v>126</v>
@@ -14476,13 +14471,13 @@
         <v>41</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J85" s="8" t="n">
         <v>113</v>
       </c>
       <c r="K85" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q85" s="10" t="s">
         <v>126</v>
@@ -14553,7 +14548,7 @@
       </c>
       <c r="J88" s="10"/>
       <c r="K88" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q88" s="10" t="s">
         <v>126</v>
@@ -14597,13 +14592,13 @@
         <v>0.25</v>
       </c>
       <c r="K90" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q90" s="10" t="s">
         <v>126</v>
       </c>
       <c r="T90" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14621,11 +14616,11 @@
         <v>124</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J91" s="10"/>
       <c r="K91" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q91" s="10" t="s">
         <v>126</v>
@@ -14647,7 +14642,7 @@
         <v>124</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J92" s="0"/>
       <c r="K92" s="0"/>
@@ -14671,11 +14666,11 @@
         <v>124</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J93" s="8"/>
       <c r="K93" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="Q93" s="10" t="s">
         <v>126</v>
@@ -14694,14 +14689,14 @@
         <v>41</v>
       </c>
       <c r="G94" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J94" s="0"/>
       <c r="K94" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q94" s="10" t="s">
         <v>126</v>
@@ -14720,10 +14715,10 @@
         <v>41</v>
       </c>
       <c r="G95" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J95" s="0"/>
       <c r="K95" s="0"/>
@@ -14744,14 +14739,14 @@
         <v>41</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J96" s="0"/>
       <c r="K96" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q96" s="10" t="s">
         <v>126</v>
@@ -14770,13 +14765,13 @@
         <v>41</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J97" s="8" t="n">
         <v>56</v>
       </c>
       <c r="K97" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q97" s="10" t="s">
         <v>126</v>
@@ -14825,31 +14820,31 @@
   <sheetData>
     <row r="1" customFormat="false" ht="17.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>157</v>
       </c>
       <c r="L1" s="1"/>
     </row>
@@ -14861,7 +14856,7 @@
         <v>70</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>107</v>
@@ -14876,7 +14871,7 @@
         <v>70</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>105</v>
@@ -14888,7 +14883,7 @@
         <v>105</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>107</v>
@@ -14907,7 +14902,7 @@
         <v>76</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>99</v>
@@ -14927,10 +14922,10 @@
         <v>52</v>
       </c>
       <c r="C6" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>158</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14941,10 +14936,10 @@
         <v>56</v>
       </c>
       <c r="C7" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14955,10 +14950,10 @@
         <v>60</v>
       </c>
       <c r="C8" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14969,10 +14964,10 @@
         <v>62</v>
       </c>
       <c r="C9" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14983,10 +14978,10 @@
         <v>63</v>
       </c>
       <c r="C10" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14997,10 +14992,10 @@
         <v>64</v>
       </c>
       <c r="C11" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15011,10 +15006,10 @@
         <v>65</v>
       </c>
       <c r="C12" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>158</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15025,10 +15020,10 @@
         <v>67</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15039,10 +15034,10 @@
         <v>68</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15053,10 +15048,10 @@
         <v>69</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15067,7 +15062,7 @@
         <v>43</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>99</v>
@@ -15081,7 +15076,7 @@
         <v>44</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>99</v>
@@ -15095,7 +15090,7 @@
         <v>46</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>99</v>
@@ -15109,7 +15104,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D19" s="9" t="s">
         <v>99</v>
@@ -15123,7 +15118,7 @@
         <v>48</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D20" s="9" t="s">
         <v>99</v>
@@ -15137,7 +15132,7 @@
         <v>49</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>99</v>
@@ -15151,7 +15146,7 @@
         <v>50</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>99</v>
@@ -15165,7 +15160,7 @@
         <v>51</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>99</v>

--- a/backend_tests/z_input_files/v2/03_Soslaires_no_parameters.xlsx
+++ b/backend_tests/z_input_files/v2/03_Soslaires_no_parameters.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Metadata" sheetId="1" state="visible" r:id="rId2"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1285" uniqueCount="160">
   <si>
     <t xml:space="preserve">Case study code</t>
   </si>
@@ -442,10 +442,10 @@
     <t xml:space="preserve">Input</t>
   </si>
   <si>
+    <t xml:space="preserve">Year</t>
+  </si>
+  <si>
     <t xml:space="preserve">hours</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Year</t>
   </si>
   <si>
     <t xml:space="preserve">M€</t>
@@ -11171,8 +11171,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="R3" activeCellId="0" sqref="R3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q11" activeCellId="0" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -11291,7 +11291,9 @@
       <c r="N2" s="8"/>
       <c r="O2" s="8"/>
       <c r="P2" s="8"/>
-      <c r="Q2" s="10"/>
+      <c r="Q2" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="11"/>
@@ -11319,7 +11321,7 @@
         <v>274000</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -11327,7 +11329,7 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
       <c r="Q3" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="R3" s="8"/>
       <c r="S3" s="8"/>
@@ -11353,7 +11355,9 @@
       <c r="K4" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="Q4" s="10"/>
+      <c r="Q4" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="T4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11375,7 +11379,7 @@
         <v>128</v>
       </c>
       <c r="Q5" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T5" s="8"/>
     </row>
@@ -11419,7 +11423,7 @@
         <v>129</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T7" s="8" t="s">
         <v>130</v>
@@ -11446,7 +11450,7 @@
         <v>131</v>
       </c>
       <c r="Q8" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T8" s="8"/>
     </row>
@@ -11474,7 +11478,7 @@
         <v>133</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T9" s="11"/>
     </row>
@@ -11502,7 +11506,7 @@
         <v>134</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T10" s="8"/>
     </row>
@@ -11525,9 +11529,7 @@
       <c r="I11" s="8"/>
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
-      <c r="Q11" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q11" s="10"/>
       <c r="T11" s="8"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11554,7 +11556,7 @@
         <v>129</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T12" s="8" t="s">
         <v>136</v>
@@ -11584,7 +11586,7 @@
         <v>127</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T13" s="1"/>
     </row>
@@ -11610,7 +11612,7 @@
         <v>133</v>
       </c>
       <c r="Q14" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T14" s="1"/>
     </row>
@@ -11634,7 +11636,7 @@
       <c r="J15" s="0"/>
       <c r="K15" s="0"/>
       <c r="Q15" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T15" s="1"/>
     </row>
@@ -11660,7 +11662,7 @@
         <v>133</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T16" s="1"/>
     </row>
@@ -11688,7 +11690,7 @@
         <v>133</v>
       </c>
       <c r="Q17" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T17" s="1"/>
     </row>
@@ -11716,7 +11718,7 @@
         <v>127</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T18" s="1"/>
     </row>
@@ -11739,7 +11741,9 @@
       <c r="K19" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="Q19" s="10"/>
+      <c r="Q19" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="T19" s="11"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11759,10 +11763,10 @@
         <v>660</v>
       </c>
       <c r="K20" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q20" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="Q20" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="T20" s="11"/>
     </row>
@@ -11785,7 +11789,9 @@
       <c r="K21" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="Q21" s="10"/>
+      <c r="Q21" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="T21" s="8"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11856,7 +11862,7 @@
         <v>80</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T24" s="0"/>
     </row>
@@ -11880,7 +11886,7 @@
         <v>139</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T25" s="8" t="s">
         <v>140</v>
@@ -11907,7 +11913,7 @@
         <v>139</v>
       </c>
       <c r="Q26" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T26" s="8" t="s">
         <v>141</v>
@@ -11936,7 +11942,7 @@
         <v>139</v>
       </c>
       <c r="Q27" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T27" s="8" t="s">
         <v>142</v>
@@ -11959,10 +11965,10 @@
         <v>2640</v>
       </c>
       <c r="K28" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q28" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="Q28" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="T28" s="11"/>
     </row>
@@ -11985,7 +11991,9 @@
       <c r="K29" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="Q29" s="10"/>
+      <c r="Q29" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="T29" s="11" t="s">
         <v>143</v>
       </c>
@@ -12009,7 +12017,9 @@
       <c r="K30" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="Q30" s="10"/>
+      <c r="Q30" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="T30" s="8" t="s">
         <v>144</v>
       </c>
@@ -12035,7 +12045,7 @@
         <v>80</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T31" s="11"/>
     </row>
@@ -12058,7 +12068,9 @@
       <c r="K32" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="Q32" s="10"/>
+      <c r="Q32" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="T32" s="11"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12080,7 +12092,9 @@
       <c r="K33" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="Q33" s="10"/>
+      <c r="Q33" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="T33" s="8"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12103,7 +12117,7 @@
         <v>139</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T34" s="11" t="s">
         <v>145</v>
@@ -12129,7 +12143,7 @@
         <v>71</v>
       </c>
       <c r="Q35" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T35" s="11" t="s">
         <v>145</v>
@@ -12155,7 +12169,7 @@
         <v>80</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T36" s="11"/>
     </row>
@@ -12182,7 +12196,7 @@
         <v>129</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T37" s="0"/>
     </row>
@@ -12209,7 +12223,7 @@
         <v>129</v>
       </c>
       <c r="Q38" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T38" s="8" t="s">
         <v>146</v>
@@ -12233,9 +12247,7 @@
       </c>
       <c r="J39" s="0"/>
       <c r="K39" s="0"/>
-      <c r="Q39" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q39" s="10"/>
       <c r="T39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12257,6 +12269,9 @@
       <c r="K40" s="8" t="s">
         <v>129</v>
       </c>
+      <c r="Q40" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="T40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12278,6 +12293,9 @@
       <c r="K41" s="8" t="s">
         <v>80</v>
       </c>
+      <c r="Q41" s="9" t="s">
+        <v>125</v>
+      </c>
       <c r="T41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12298,6 +12316,9 @@
       </c>
       <c r="K42" s="8" t="s">
         <v>129</v>
+      </c>
+      <c r="Q42" s="9" t="s">
+        <v>125</v>
       </c>
       <c r="T42" s="14" t="s">
         <v>147</v>
@@ -12321,8 +12342,8 @@
   </sheetPr>
   <dimension ref="A1:T97"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q75" activeCellId="0" sqref="Q75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12432,7 +12453,9 @@
       <c r="K2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Q2" s="10"/>
+      <c r="Q2" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="T2" s="11"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12453,10 +12476,10 @@
         <v>21000</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q3" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="T3" s="11"/>
     </row>
@@ -12479,7 +12502,7 @@
         <v>128</v>
       </c>
       <c r="Q4" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T4" s="8"/>
     </row>
@@ -12523,7 +12546,7 @@
         <v>129</v>
       </c>
       <c r="Q6" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T6" s="8" t="s">
         <v>130</v>
@@ -12553,7 +12576,7 @@
         <v>133</v>
       </c>
       <c r="Q7" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T7" s="11"/>
     </row>
@@ -12576,9 +12599,7 @@
       </c>
       <c r="J8" s="0"/>
       <c r="K8" s="0"/>
-      <c r="Q8" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q8" s="10"/>
       <c r="T8" s="8"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12603,7 +12624,7 @@
         <v>129</v>
       </c>
       <c r="Q9" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T9" s="8"/>
     </row>
@@ -12629,7 +12650,7 @@
         <v>133</v>
       </c>
       <c r="Q10" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T10" s="0"/>
     </row>
@@ -12653,7 +12674,7 @@
       <c r="J11" s="0"/>
       <c r="K11" s="0"/>
       <c r="Q11" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T11" s="0"/>
     </row>
@@ -12679,7 +12700,7 @@
         <v>133</v>
       </c>
       <c r="Q12" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T12" s="0"/>
     </row>
@@ -12704,7 +12725,7 @@
         <v>133</v>
       </c>
       <c r="Q13" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T13" s="0"/>
     </row>
@@ -12728,7 +12749,9 @@
       <c r="K14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Q14" s="10"/>
+      <c r="Q14" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="T14" s="11"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12749,10 +12772,10 @@
         <v>10500</v>
       </c>
       <c r="K15" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q15" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="T15" s="11"/>
     </row>
@@ -12775,7 +12798,7 @@
         <v>128</v>
       </c>
       <c r="Q16" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T16" s="8"/>
     </row>
@@ -12819,7 +12842,7 @@
         <v>129</v>
       </c>
       <c r="Q18" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T18" s="8" t="s">
         <v>130</v>
@@ -12849,7 +12872,7 @@
         <v>133</v>
       </c>
       <c r="Q19" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T19" s="11"/>
     </row>
@@ -12872,9 +12895,7 @@
       </c>
       <c r="J20" s="0"/>
       <c r="K20" s="0"/>
-      <c r="Q20" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q20" s="10"/>
       <c r="T20" s="8"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12899,7 +12920,7 @@
         <v>129</v>
       </c>
       <c r="Q21" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T21" s="8"/>
     </row>
@@ -12925,7 +12946,7 @@
         <v>133</v>
       </c>
       <c r="Q22" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T22" s="0"/>
     </row>
@@ -12948,9 +12969,7 @@
       </c>
       <c r="J23" s="0"/>
       <c r="K23" s="0"/>
-      <c r="Q23" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q23" s="10"/>
       <c r="T23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12975,7 +12994,7 @@
         <v>133</v>
       </c>
       <c r="Q24" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T24" s="0"/>
     </row>
@@ -13000,7 +13019,7 @@
         <v>133</v>
       </c>
       <c r="Q25" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T25" s="0"/>
     </row>
@@ -13024,7 +13043,9 @@
       <c r="K26" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Q26" s="10"/>
+      <c r="Q26" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="T26" s="11"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13045,10 +13066,10 @@
         <v>34000</v>
       </c>
       <c r="K27" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q27" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="Q27" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="T27" s="11"/>
     </row>
@@ -13071,7 +13092,7 @@
         <v>128</v>
       </c>
       <c r="Q28" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T28" s="8"/>
     </row>
@@ -13115,7 +13136,7 @@
         <v>128</v>
       </c>
       <c r="Q30" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T30" s="8" t="s">
         <v>130</v>
@@ -13145,7 +13166,7 @@
         <v>133</v>
       </c>
       <c r="Q31" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T31" s="11"/>
     </row>
@@ -13168,9 +13189,7 @@
       </c>
       <c r="J32" s="0"/>
       <c r="K32" s="0"/>
-      <c r="Q32" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q32" s="10"/>
       <c r="T32" s="8"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13195,7 +13214,7 @@
         <v>129</v>
       </c>
       <c r="Q33" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T33" s="8"/>
     </row>
@@ -13221,7 +13240,7 @@
         <v>133</v>
       </c>
       <c r="Q34" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T34" s="0"/>
     </row>
@@ -13244,9 +13263,7 @@
       </c>
       <c r="J35" s="0"/>
       <c r="K35" s="0"/>
-      <c r="Q35" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q35" s="10"/>
       <c r="T35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13271,7 +13288,7 @@
         <v>133</v>
       </c>
       <c r="Q36" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T36" s="0"/>
     </row>
@@ -13296,7 +13313,7 @@
         <v>133</v>
       </c>
       <c r="Q37" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T37" s="0"/>
     </row>
@@ -13320,7 +13337,9 @@
       <c r="K38" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Q38" s="10"/>
+      <c r="Q38" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="T38" s="11"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13341,10 +13360,10 @@
         <v>8800</v>
       </c>
       <c r="K39" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q39" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="Q39" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="T39" s="11"/>
     </row>
@@ -13367,7 +13386,7 @@
         <v>128</v>
       </c>
       <c r="Q40" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T40" s="8"/>
     </row>
@@ -13411,7 +13430,7 @@
         <v>129</v>
       </c>
       <c r="Q42" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T42" s="8" t="s">
         <v>130</v>
@@ -13441,7 +13460,7 @@
         <v>133</v>
       </c>
       <c r="Q43" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T43" s="11"/>
     </row>
@@ -13464,9 +13483,7 @@
       </c>
       <c r="J44" s="0"/>
       <c r="K44" s="0"/>
-      <c r="Q44" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q44" s="10"/>
       <c r="T44" s="8"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13491,7 +13508,7 @@
         <v>129</v>
       </c>
       <c r="Q45" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T45" s="8"/>
     </row>
@@ -13517,7 +13534,7 @@
         <v>133</v>
       </c>
       <c r="Q46" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T46" s="0"/>
     </row>
@@ -13540,9 +13557,7 @@
       </c>
       <c r="J47" s="0"/>
       <c r="K47" s="0"/>
-      <c r="Q47" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q47" s="10"/>
       <c r="T47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13567,7 +13582,7 @@
         <v>133</v>
       </c>
       <c r="Q48" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T48" s="0"/>
     </row>
@@ -13592,7 +13607,7 @@
         <v>133</v>
       </c>
       <c r="Q49" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T49" s="0"/>
     </row>
@@ -13616,7 +13631,9 @@
       <c r="K50" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Q50" s="10"/>
+      <c r="Q50" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="T50" s="11"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13637,10 +13654,10 @@
         <v>8800</v>
       </c>
       <c r="K51" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q51" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="Q51" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="T51" s="11"/>
     </row>
@@ -13663,7 +13680,7 @@
         <v>128</v>
       </c>
       <c r="Q52" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T52" s="8"/>
     </row>
@@ -13707,7 +13724,7 @@
         <v>129</v>
       </c>
       <c r="Q54" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T54" s="8" t="s">
         <v>130</v>
@@ -13737,7 +13754,7 @@
         <v>133</v>
       </c>
       <c r="Q55" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T55" s="11"/>
     </row>
@@ -13760,9 +13777,7 @@
       </c>
       <c r="J56" s="0"/>
       <c r="K56" s="0"/>
-      <c r="Q56" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q56" s="10"/>
       <c r="T56" s="8"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13787,7 +13802,7 @@
         <v>129</v>
       </c>
       <c r="Q57" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T57" s="8"/>
     </row>
@@ -13813,7 +13828,7 @@
         <v>133</v>
       </c>
       <c r="Q58" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T58" s="0"/>
     </row>
@@ -13836,9 +13851,7 @@
       </c>
       <c r="J59" s="0"/>
       <c r="K59" s="0"/>
-      <c r="Q59" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q59" s="10"/>
       <c r="T59" s="0"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13863,7 +13876,7 @@
         <v>133</v>
       </c>
       <c r="Q60" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T60" s="0"/>
     </row>
@@ -13888,7 +13901,7 @@
         <v>133</v>
       </c>
       <c r="Q61" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T61" s="0"/>
     </row>
@@ -13912,7 +13925,9 @@
       <c r="K62" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Q62" s="10"/>
+      <c r="Q62" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="T62" s="11"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13933,10 +13948,10 @@
         <v>4400</v>
       </c>
       <c r="K63" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q63" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="Q63" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="T63" s="11"/>
     </row>
@@ -13959,7 +13974,7 @@
         <v>128</v>
       </c>
       <c r="Q64" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T64" s="8"/>
     </row>
@@ -14003,7 +14018,7 @@
         <v>129</v>
       </c>
       <c r="Q66" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T66" s="8" t="s">
         <v>130</v>
@@ -14033,7 +14048,7 @@
         <v>133</v>
       </c>
       <c r="Q67" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T67" s="11"/>
     </row>
@@ -14056,9 +14071,7 @@
       </c>
       <c r="J68" s="0"/>
       <c r="K68" s="0"/>
-      <c r="Q68" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q68" s="10"/>
       <c r="T68" s="8"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14083,7 +14096,7 @@
         <v>129</v>
       </c>
       <c r="Q69" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T69" s="8"/>
     </row>
@@ -14109,7 +14122,7 @@
         <v>133</v>
       </c>
       <c r="Q70" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T70" s="0"/>
     </row>
@@ -14132,9 +14145,7 @@
       </c>
       <c r="J71" s="0"/>
       <c r="K71" s="0"/>
-      <c r="Q71" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q71" s="10"/>
       <c r="T71" s="0"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14159,7 +14170,7 @@
         <v>133</v>
       </c>
       <c r="Q72" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T72" s="0"/>
     </row>
@@ -14184,7 +14195,7 @@
         <v>133</v>
       </c>
       <c r="Q73" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T73" s="0"/>
     </row>
@@ -14208,7 +14219,9 @@
       <c r="K74" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Q74" s="10"/>
+      <c r="Q74" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="T74" s="11"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14229,10 +14242,10 @@
         <v>6600</v>
       </c>
       <c r="K75" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q75" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="Q75" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="T75" s="11"/>
     </row>
@@ -14255,7 +14268,7 @@
         <v>128</v>
       </c>
       <c r="Q76" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T76" s="8"/>
     </row>
@@ -14299,7 +14312,7 @@
         <v>129</v>
       </c>
       <c r="Q78" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T78" s="8" t="s">
         <v>130</v>
@@ -14329,7 +14342,7 @@
         <v>133</v>
       </c>
       <c r="Q79" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T79" s="11"/>
     </row>
@@ -14352,9 +14365,7 @@
       </c>
       <c r="J80" s="0"/>
       <c r="K80" s="0"/>
-      <c r="Q80" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q80" s="10"/>
       <c r="T80" s="8"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14379,7 +14390,7 @@
         <v>129</v>
       </c>
       <c r="Q81" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T81" s="8"/>
     </row>
@@ -14405,7 +14416,7 @@
         <v>133</v>
       </c>
       <c r="Q82" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T82" s="0"/>
     </row>
@@ -14428,9 +14439,7 @@
       </c>
       <c r="J83" s="0"/>
       <c r="K83" s="0"/>
-      <c r="Q83" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q83" s="10"/>
       <c r="T83" s="0"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14455,7 +14464,7 @@
         <v>133</v>
       </c>
       <c r="Q84" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T84" s="0"/>
     </row>
@@ -14480,7 +14489,7 @@
         <v>133</v>
       </c>
       <c r="Q85" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T85" s="0"/>
     </row>
@@ -14504,7 +14513,9 @@
       <c r="K86" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="Q86" s="10"/>
+      <c r="Q86" s="10" t="s">
+        <v>125</v>
+      </c>
       <c r="T86" s="11"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14525,10 +14536,10 @@
         <v>3000</v>
       </c>
       <c r="K87" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q87" s="10" t="s">
         <v>125</v>
-      </c>
-      <c r="Q87" s="10" t="s">
-        <v>126</v>
       </c>
       <c r="T87" s="11"/>
     </row>
@@ -14551,7 +14562,7 @@
         <v>128</v>
       </c>
       <c r="Q88" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T88" s="8"/>
     </row>
@@ -14595,7 +14606,7 @@
         <v>129</v>
       </c>
       <c r="Q90" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T90" s="8" t="s">
         <v>130</v>
@@ -14623,7 +14634,7 @@
         <v>133</v>
       </c>
       <c r="Q91" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T91" s="11"/>
     </row>
@@ -14646,9 +14657,7 @@
       </c>
       <c r="J92" s="0"/>
       <c r="K92" s="0"/>
-      <c r="Q92" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q92" s="10"/>
       <c r="T92" s="8"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14673,7 +14682,7 @@
         <v>129</v>
       </c>
       <c r="Q93" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T93" s="8"/>
     </row>
@@ -14699,7 +14708,7 @@
         <v>133</v>
       </c>
       <c r="Q94" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T94" s="1"/>
     </row>
@@ -14722,9 +14731,7 @@
       </c>
       <c r="J95" s="0"/>
       <c r="K95" s="0"/>
-      <c r="Q95" s="10" t="s">
-        <v>126</v>
-      </c>
+      <c r="Q95" s="10"/>
       <c r="T95" s="1"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14749,7 +14756,7 @@
         <v>133</v>
       </c>
       <c r="Q96" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T96" s="1"/>
     </row>
@@ -14774,7 +14781,7 @@
         <v>133</v>
       </c>
       <c r="Q97" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="T97" s="1"/>
     </row>
